--- a/Documentación/Psp's/Axel/Clase Configuración/OverallMetrics.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/OverallMetrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A43076-1D5D-4298-9A98-FD43A31975A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD62C652-0396-4CAF-B901-7A7F9EA2C3D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 03:59 PM el 4/12/2018</t>
+    <t>Reporte generado a las 11:20 AM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documentación/Psp's/Axel/Clase Configuración/OverallMetrics.xlsx
+++ b/Documentación/Psp's/Axel/Clase Configuración/OverallMetrics.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD62C652-0396-4CAF-B901-7A7F9EA2C3D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAC662B-C01B-4D40-9E96-146B29F1B34F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="excel" sheetId="1" r:id="rId1"/>
+    <sheet name="excel(1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel" localSheetId="0">excel!$A$1:$D$29</definedName>
+    <definedName name="excel_1" localSheetId="0">'excel(1)'!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel.iqy" name="excel" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\AxeelZR\Downloads\excel(1).iqy" name="excel(1)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FProyecto%2FClaseConfiguraci%25C3%25B3n%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D102&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -102,7 +102,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 11:20 AM el 5/12/2018</t>
+    <t>Reporte generado a las 01:29 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1115,10 +1115,10 @@
         <v>9.23</v>
       </c>
       <c r="C8" s="7">
-        <v>5.45</v>
+        <v>7.64</v>
       </c>
       <c r="D8" s="7">
-        <v>8.85</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
-        <v>0.29305555555555557</v>
+        <v>0.31458333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>21.3</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,10 +1233,10 @@
         <v>89.5</v>
       </c>
       <c r="C17" s="7">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
-        <v>88.1</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
